--- a/matrices.xlsx
+++ b/matrices.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aymer\Documents\INSA\S9\Conception systeme vibratoires\03-Projet\CSV-github\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aymer\Documents\INSA\S9\Conception systeme vibratoires\03-Projet\CSV-github\Projet_CSV-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59F66D4D-2812-4005-BE3F-4BDE0ABF1A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C3499263-48F3-4091-8A9E-C7BA6E959B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" activeTab="1" xr2:uid="{D0A31BBF-F166-4E0D-BFC8-43DC18621E09}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{D0A31BBF-F166-4E0D-BFC8-43DC18621E09}"/>
   </bookViews>
   <sheets>
-    <sheet name="Raideur" sheetId="1" r:id="rId1"/>
-    <sheet name="Amortissement" sheetId="2" r:id="rId2"/>
+    <sheet name="K" sheetId="1" r:id="rId1"/>
+    <sheet name="Ka" sheetId="2" r:id="rId2"/>
     <sheet name="Inertie" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,14 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="2">
-  <si>
-    <t>inf</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -88,8 +81,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,84 +417,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB401DD-D811-47E1-B61D-84721ACFB8FF}">
-  <dimension ref="A1:S19"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11:I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="15" max="15" width="11.87890625" customWidth="1"/>
-    <col min="17" max="18" width="9.3515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.87890625" customWidth="1"/>
+    <col min="16" max="17" width="9.3515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A1" s="1">
+        <v>89380</v>
+      </c>
       <c r="B1">
-        <v>1</v>
+        <v>-89380</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="O1">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="P1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Q1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="R1">
-        <v>17</v>
-      </c>
-      <c r="S1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A2">
-        <v>1</v>
+        <v>-89380</v>
       </c>
       <c r="B2" s="1">
-        <v>89380</v>
+        <f>A1+7500</f>
+        <v>96880</v>
       </c>
       <c r="C2">
-        <v>-89380</v>
+        <v>-7500</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -548,23 +541,19 @@
       <c r="R2">
         <v>0</v>
       </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.5">
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>-89380</v>
-      </c>
-      <c r="C3" s="1">
-        <f>B2+7500</f>
-        <v>96880</v>
-      </c>
-      <c r="D3">
-        <v>-7500</v>
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>10000000000</v>
+      </c>
+      <c r="D3" s="3">
+        <v>-10000000000</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -608,25 +597,23 @@
       <c r="R3">
         <v>0</v>
       </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.5">
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>0</v>
+      <c r="C4" s="3">
+        <v>-10000000000</v>
+      </c>
+      <c r="D4" s="2">
+        <f>-D3-E4</f>
+        <v>10003872000</v>
+      </c>
+      <c r="E4">
+        <v>-3872000</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -667,13 +654,10 @@
       <c r="R4">
         <v>0</v>
       </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.5">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -681,14 +665,16 @@
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>0</v>
+      <c r="D5">
+        <v>-3872000</v>
+      </c>
+      <c r="E5" s="1">
+        <f>-E4+2471000</f>
+        <v>6343000</v>
       </c>
       <c r="F5">
-        <v>-3872000</v>
+        <f>-2471000</f>
+        <v>-2471000</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -726,13 +712,10 @@
       <c r="R5">
         <v>0</v>
       </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.5">
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -744,22 +727,17 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>-3872000</v>
+        <f>-2471000</f>
+        <v>-2471000</v>
       </c>
       <c r="F6" s="1">
-        <f>-F5+2471000</f>
-        <v>6343000</v>
+        <f>-F5*2</f>
+        <v>4942000</v>
       </c>
       <c r="G6">
         <f>-2471000</f>
         <v>-2471000</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
       <c r="J6">
         <v>0</v>
       </c>
@@ -787,13 +765,10 @@
       <c r="R6">
         <v>0</v>
       </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.5">
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -819,6 +794,9 @@
         <f>-2471000</f>
         <v>-2471000</v>
       </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
       <c r="K7">
         <v>0</v>
       </c>
@@ -843,13 +821,10 @@
       <c r="R7">
         <v>0</v>
       </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.5">
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A8">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -878,6 +853,9 @@
         <f>-2471000</f>
         <v>-2471000</v>
       </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
       <c r="K8">
         <v>0</v>
       </c>
@@ -902,13 +880,10 @@
       <c r="R8">
         <v>0</v>
       </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.5">
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A9">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -964,13 +939,10 @@
       <c r="R9">
         <v>0</v>
       </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.5">
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A10">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1002,8 +974,7 @@
         <v>4942000</v>
       </c>
       <c r="K10">
-        <f>-2471000</f>
-        <v>-2471000</v>
+        <v>-4008000</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1026,13 +997,10 @@
       <c r="R10">
         <v>0</v>
       </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.5">
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1059,16 +1027,14 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <f>-2471000</f>
-        <v>-2471000</v>
-      </c>
-      <c r="K11" s="1">
-        <f>-K10*2</f>
-        <v>4942000</v>
-      </c>
-      <c r="L11">
         <v>-4008000</v>
       </c>
+      <c r="K11" s="2">
+        <v>10000000000</v>
+      </c>
+      <c r="L11" s="3">
+        <v>-10000000000</v>
+      </c>
       <c r="M11">
         <v>0</v>
       </c>
@@ -1087,13 +1053,10 @@
       <c r="R11">
         <v>0</v>
       </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.5">
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A12">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1122,14 +1085,14 @@
       <c r="J12">
         <v>0</v>
       </c>
-      <c r="K12">
-        <v>-4008000</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M12" t="s">
-        <v>0</v>
+      <c r="K12" s="3">
+        <v>-10000000000</v>
+      </c>
+      <c r="L12" s="2">
+        <v>10000000000</v>
+      </c>
+      <c r="M12">
+        <v>-4770</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1146,13 +1109,10 @@
       <c r="R12">
         <v>0</v>
       </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.5">
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A13">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1184,14 +1144,15 @@
       <c r="K13">
         <v>0</v>
       </c>
-      <c r="L13" t="s">
-        <v>0</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>0</v>
+      <c r="L13">
+        <v>-4770</v>
+      </c>
+      <c r="M13" s="1">
+        <f>-M12+378790</f>
+        <v>383560</v>
       </c>
       <c r="N13">
-        <v>-4770</v>
+        <v>-378790</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1205,13 +1166,10 @@
       <c r="R13">
         <v>0</v>
       </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.5">
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A14">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1247,31 +1205,28 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>-4770</v>
+        <v>-378790</v>
       </c>
       <c r="N14" s="1">
-        <f>-N13+378790</f>
-        <v>383560</v>
+        <f>-N13-O14-P14-Q14</f>
+        <v>33787170</v>
       </c>
       <c r="O14">
-        <v>-378790</v>
+        <v>-13180</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>-20408200</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>-12987000</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.5">
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A15">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1310,148 +1265,139 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>-378790</v>
+        <v>-13180</v>
       </c>
       <c r="O15" s="1">
-        <f>-O14-P15-Q15-R15</f>
-        <v>33787170</v>
+        <f>-O14</f>
+        <v>13180</v>
       </c>
       <c r="P15">
-        <v>-13180</v>
+        <v>0</v>
       </c>
       <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
         <v>-20408200</v>
       </c>
-      <c r="R15">
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1">
+        <f>-P14</f>
+        <v>20408200</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
         <v>-12987000</v>
       </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16" s="2">
-        <v>-13180</v>
-      </c>
-      <c r="P16" s="1">
-        <f>-P15</f>
-        <v>13180</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17" s="2">
-        <v>-20408200</v>
+      <c r="O17">
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17" s="1">
-        <f>-Q15</f>
-        <v>20408200</v>
+        <f>-Q14</f>
+        <v>12987000</v>
       </c>
       <c r="R17">
         <v>0</v>
       </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.5">
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A18">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1492,8 +1438,8 @@
       <c r="N18">
         <v>0</v>
       </c>
-      <c r="O18" s="2">
-        <v>-12987000</v>
+      <c r="O18">
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1502,69 +1448,6 @@
         <v>0</v>
       </c>
       <c r="R18" s="1">
-        <f>-R15</f>
-        <v>12987000</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19" s="2">
-        <v>0</v>
-      </c>
-      <c r="P19" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>0</v>
-      </c>
-      <c r="R19" s="2">
-        <v>0</v>
-      </c>
-      <c r="S19" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1575,139 +1458,136 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE5377E-3526-4E0D-9D07-D207A44120BA}">
-  <dimension ref="A1:S19"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
       <c r="B1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="O1">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="P1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Q1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="R1">
-        <v>17</v>
-      </c>
-      <c r="S1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3">
-        <v>0</v>
-      </c>
-      <c r="J2" s="3">
-        <v>0</v>
-      </c>
-      <c r="K2" s="3">
-        <v>0</v>
-      </c>
-      <c r="L2" s="3">
-        <v>0</v>
-      </c>
-      <c r="M2" s="3">
-        <v>0</v>
-      </c>
-      <c r="N2" s="3">
-        <v>0</v>
-      </c>
-      <c r="O2" s="3">
-        <v>0</v>
-      </c>
-      <c r="P2" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>0</v>
-      </c>
-      <c r="R2" s="3">
-        <v>0</v>
-      </c>
-      <c r="S2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.5">
+        <f>-C2</f>
+        <v>0.6</v>
+      </c>
+      <c r="C2">
+        <v>-0.6</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
+      <c r="C3">
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1754,13 +1634,10 @@
       <c r="R3">
         <v>0</v>
       </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.5">
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1768,8 +1645,8 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4">
-        <v>0</v>
+      <c r="D4" s="1">
+        <v>135</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1811,15 +1688,12 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.5">
+        <v>-135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1831,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>135</v>
+        <v>5.4</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1872,13 +1746,10 @@
       <c r="R5">
         <v>0</v>
       </c>
-      <c r="S5">
-        <v>-135</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.5">
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1931,13 +1802,10 @@
       <c r="R6">
         <v>0</v>
       </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.5">
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1990,13 +1858,10 @@
       <c r="R7">
         <v>0</v>
       </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.5">
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A8">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2049,13 +1914,10 @@
       <c r="R8">
         <v>0</v>
       </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.5">
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A9">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2108,13 +1970,10 @@
       <c r="R9">
         <v>0</v>
       </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.5">
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A10">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2167,13 +2026,10 @@
       <c r="R10">
         <v>0</v>
       </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.5">
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2202,8 +2058,8 @@
       <c r="J11">
         <v>0</v>
       </c>
-      <c r="K11" s="1">
-        <v>5.4</v>
+      <c r="K11">
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -2226,13 +2082,10 @@
       <c r="R11">
         <v>0</v>
       </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.5">
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A12">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2264,11 +2117,12 @@
       <c r="K12">
         <v>0</v>
       </c>
-      <c r="L12">
-        <v>0</v>
+      <c r="L12" s="1">
+        <f>-M12</f>
+        <v>20</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -2285,13 +2139,10 @@
       <c r="R12">
         <v>0</v>
       </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.5">
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A13">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2324,14 +2175,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="M13" s="1">
-        <f>-N13</f>
         <v>20</v>
       </c>
       <c r="N13">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -2345,13 +2195,10 @@
       <c r="R13">
         <v>0</v>
       </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.5">
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A14">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2387,10 +2234,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>-20</v>
-      </c>
-      <c r="N14" s="1">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -2404,13 +2251,10 @@
       <c r="R14">
         <v>0</v>
       </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.5">
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A15">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2463,13 +2307,10 @@
       <c r="R15">
         <v>0</v>
       </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.5">
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A16">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2522,13 +2363,10 @@
       <c r="R16">
         <v>0</v>
       </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.5">
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A17">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2581,13 +2419,10 @@
       <c r="R17">
         <v>0</v>
       </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.5">
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A18">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2596,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>-135</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -2637,69 +2472,7 @@
       <c r="Q18">
         <v>0</v>
       </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>-135</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19" s="1">
+      <c r="R18" s="1">
         <v>135</v>
       </c>
     </row>
@@ -2891,7 +2664,6 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="O16" s="2"/>
       <c r="P16" s="1">
         <v>1.1999999999999999E-3</v>
       </c>
@@ -2900,7 +2672,6 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="O17" s="2"/>
       <c r="Q17" s="1">
         <v>0.42880000000000001</v>
       </c>
@@ -2909,7 +2680,6 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="O18" s="2"/>
       <c r="R18" s="1">
         <v>1245</v>
       </c>
@@ -2918,10 +2688,6 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
       <c r="S19" s="1">
         <v>0.12529999999999999</v>
       </c>

--- a/matrices.xlsx
+++ b/matrices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aymer\Documents\INSA\S9\Conception systeme vibratoires\03-Projet\CSV-github\Projet_CSV-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C3499263-48F3-4091-8A9E-C7BA6E959B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308EDC6C-D1AD-470D-A61D-0E4D4EABCD3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{D0A31BBF-F166-4E0D-BFC8-43DC18621E09}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" activeTab="2" xr2:uid="{D0A31BBF-F166-4E0D-BFC8-43DC18621E09}"/>
   </bookViews>
   <sheets>
     <sheet name="K" sheetId="1" r:id="rId1"/>
@@ -35,10 +35,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -419,7 +415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB401DD-D811-47E1-B61D-84721ACFB8FF}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
@@ -2483,212 +2479,1019 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{954806FC-CF13-49B0-8F8D-5FFA7FF61D5F}">
-  <dimension ref="A1:S19"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A1" s="1">
+        <v>1.2699999999999999E-2</v>
+      </c>
       <c r="B1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="O1">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="P1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Q1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="R1">
-        <v>17</v>
-      </c>
-      <c r="S1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>1.2699999999999999E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.5">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A3">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>6.1999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.5">
+        <v>0.1192</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A4">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>0.1192</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.5">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A5">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>5.8999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.5">
+        <v>0.105</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A6">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
       </c>
       <c r="F6" s="1">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
         <v>0.105</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="G7" s="1">
-        <v>7.2999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A8">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
       </c>
       <c r="H8" s="1">
         <v>0.105</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A9">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
       </c>
       <c r="I9" s="1">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
         <v>0.105</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="J10" s="1">
-        <v>7.2999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A11">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>0.105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.5">
+        <v>2.0019999999999998</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A12">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
       </c>
       <c r="L12" s="1">
-        <v>2.0019999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.5">
+        <v>0.56130000000000002</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A13">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
       </c>
       <c r="M13" s="1">
-        <v>0.56130000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.5">
+        <v>8.5400000000000004E-2</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A14">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>8.5400000000000004E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.5">
+        <v>0.45040000000000002</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A15">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
       </c>
       <c r="O15" s="1">
-        <v>0.45040000000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.5">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A16">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>1.1999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.5">
+        <v>0.42880000000000001</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A17">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
       </c>
       <c r="Q17" s="1">
-        <v>0.42880000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.5">
+        <v>0.1245</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A18">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
       </c>
       <c r="R18" s="1">
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="S19" s="1">
         <v>0.12529999999999999</v>
       </c>
     </row>

--- a/matrices.xlsx
+++ b/matrices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aymer\Documents\INSA\S9\Conception systeme vibratoires\03-Projet\CSV-github\Projet_CSV-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308EDC6C-D1AD-470D-A61D-0E4D4EABCD3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0829A78-FBB9-4283-98AC-548A90F6E4DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" activeTab="2" xr2:uid="{D0A31BBF-F166-4E0D-BFC8-43DC18621E09}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" activeTab="1" xr2:uid="{D0A31BBF-F166-4E0D-BFC8-43DC18621E09}"/>
   </bookViews>
   <sheets>
     <sheet name="K" sheetId="1" r:id="rId1"/>
@@ -416,7 +416,7 @@
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -543,7 +543,7 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>-7500</v>
       </c>
       <c r="C3" s="2">
         <v>10000000000</v>
@@ -1456,7 +1456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE5377E-3526-4E0D-9D07-D207A44120BA}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -2481,7 +2481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{954806FC-CF13-49B0-8F8D-5FFA7FF61D5F}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
